--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Incident Location</t>
+    <t>RS Incident Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Incident Location</t>
+    <t>Road Safety Incident Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Incident Location</t>
+    <t>RS Incident Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/service-type"/&gt;
+    &lt;code value="236"/&gt;
+    &lt;display value="Accident"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>extensible</t>
@@ -3472,7 +3481,7 @@
         <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>76</v>
@@ -3487,13 +3496,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3526,7 +3535,7 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>187</v>
@@ -3534,10 +3543,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3560,13 +3569,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3617,7 +3626,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3632,7 +3641,7 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3640,10 +3649,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3666,19 +3675,19 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3727,7 +3736,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3742,7 +3751,7 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3750,10 +3759,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3779,10 +3788,10 @@
         <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3833,7 +3842,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3856,10 +3865,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3885,10 +3894,10 @@
         <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3927,19 +3936,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3962,13 +3971,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -3990,13 +3999,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4047,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4070,13 +4079,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
@@ -4098,13 +4107,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4155,7 +4164,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4178,13 +4187,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -4206,13 +4215,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4263,7 +4272,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4286,10 +4295,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4315,16 +4324,16 @@
         <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4337,7 +4346,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4352,10 +4361,10 @@
         <v>152</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4373,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4388,7 +4397,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4396,10 +4405,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4425,13 +4434,13 @@
         <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4445,7 +4454,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4460,10 +4469,10 @@
         <v>152</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4481,7 +4490,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4496,7 +4505,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4504,10 +4513,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4533,16 +4542,16 @@
         <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4555,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>76</v>
@@ -4591,7 +4600,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4606,7 +4615,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4614,10 +4623,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4643,10 +4652,10 @@
         <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4661,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>76</v>
@@ -4697,7 +4706,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4712,7 +4721,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4720,14 +4729,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4749,10 +4758,10 @@
         <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4767,7 +4776,7 @@
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -4803,7 +4812,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4827,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4826,14 +4835,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4855,13 +4864,13 @@
         <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4875,7 +4884,7 @@
         <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>76</v>
@@ -4911,7 +4920,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4926,7 +4935,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4934,14 +4943,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4963,10 +4972,10 @@
         <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5017,7 +5026,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5032,7 +5041,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5040,14 +5049,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5069,10 +5078,10 @@
         <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5087,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>76</v>
@@ -5123,7 +5132,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5138,7 +5147,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5146,10 +5155,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5175,13 +5184,13 @@
         <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5231,7 +5240,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5246,7 +5255,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5254,10 +5263,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5280,17 +5289,17 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5303,7 +5312,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5339,7 +5348,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5354,7 +5363,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5362,10 +5371,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5391,14 +5400,14 @@
         <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5423,13 +5432,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5447,7 +5456,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5471,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>187</v>
@@ -5470,10 +5479,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5496,17 +5505,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5555,7 +5564,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5570,7 +5579,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5578,10 +5587,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5607,10 +5616,10 @@
         <v>165</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5661,7 +5670,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5684,10 +5693,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5716,7 +5725,7 @@
         <v>132</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>134</v>
@@ -5769,7 +5778,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5792,14 +5801,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5821,10 +5830,10 @@
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>134</v>
@@ -5879,7 +5888,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5902,10 +5911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5928,13 +5937,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5985,7 +5994,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
@@ -6000,7 +6009,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6008,10 +6017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6034,13 +6043,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6091,7 +6100,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>85</v>
@@ -6106,7 +6115,7 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6114,10 +6123,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6140,13 +6149,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6197,7 +6206,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6212,7 +6221,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6220,10 +6229,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6246,19 +6255,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6307,7 +6316,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6322,7 +6331,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6330,10 +6339,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6356,17 +6365,17 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6415,7 +6424,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6430,7 +6439,7 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6438,10 +6447,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6464,16 +6473,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6523,7 +6532,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6538,7 +6547,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6546,10 +6555,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6575,10 +6584,10 @@
         <v>165</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6629,7 +6638,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6652,10 +6661,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6684,7 +6693,7 @@
         <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>134</v>
@@ -6737,7 +6746,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6760,14 +6769,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6789,10 +6798,10 @@
         <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>134</v>
@@ -6847,7 +6856,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6870,10 +6879,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6899,10 +6908,10 @@
         <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6932,10 +6941,10 @@
         <v>152</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -6953,7 +6962,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6968,7 +6977,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6976,10 +6985,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7002,13 +7011,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7059,7 +7068,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7074,7 +7083,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7082,10 +7091,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7108,13 +7117,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7165,7 +7174,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7180,7 +7189,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7188,10 +7197,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7214,13 +7223,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7271,7 +7280,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7286,7 +7295,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7294,10 +7303,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7323,10 +7332,10 @@
         <v>165</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7377,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7400,10 +7409,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7426,17 +7435,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7485,7 +7494,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-incident-location-incident.xlsx
+++ b/StructureDefinition-rs-incident-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
